--- a/biology/Botanique/Fièvre_d'Or/Fièvre_d'Or.xlsx
+++ b/biology/Botanique/Fièvre_d'Or/Fièvre_d'Or.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fi%C3%A8vre_d%27Or</t>
+          <t>Fièvre_d'Or</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Fièvre d'Or' (en allemand 'Gold Rausch'[1]) est un cultivar de rosier obtenu en 1961[2] par l'obtenteur allemand Reimer Kordes[3]. Il est issu d'un croisement semis ('Condesa de Sástago' (Dot, 1930) x 'Walter Bentley') x pollen 'Buccaneer'[4]. 
+'Fièvre d'Or' (en allemand 'Gold Rausch') est un cultivar de rosier obtenu en 1961 par l'obtenteur allemand Reimer Kordes. Il est issu d'un croisement semis ('Condesa de Sástago' (Dot, 1930) x 'Walter Bentley') x pollen 'Buccaneer'. 
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fi%C3%A8vre_d%27Or</t>
+          <t>Fièvre_d'Or</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet hybride de thé présente de grandes fleurs jaunes très pleines (+41 pétales), fleurissant en bouquets tout au long de la saison[5].
-Son buisson érigé, s'élevant à 120 cm[6], possède un feuillage dense et vert foncé. Il peut être sensible au mildiou[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet hybride de thé présente de grandes fleurs jaunes très pleines (+41 pétales), fleurissant en bouquets tout au long de la saison.
+Son buisson érigé, s'élevant à 120 cm, possède un feuillage dense et vert foncé. Il peut être sensible au mildiou.
 Sa zone de rusticité est de 6b à 9b ; il est donc résistant aux hivers rigoureux.
 </t>
         </is>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fi%C3%A8vre_d%27Or</t>
+          <t>Fièvre_d'Or</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Descendance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>'Fièvre d'Or' a donné naissance notamment à :
 'Peer Gynt' (Kordes, 1968) par croisement avec 'Reine des Roses' (Kordes, 1964)</t>
